--- a/WWHALigaData.xlsx
+++ b/WWHALigaData.xlsx
@@ -434,14 +434,3517 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Manager Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Team Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gameweek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Player Out</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Out - Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Out - Position</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Player In</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In - Team</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>In - Position</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Free Hit Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alex Stephenson</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ajax Hamsterdam</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kudus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chuka Iwobi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Matthijs De Lish</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bowen</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chuka Iwobi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Matthijs De Lish</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wirtz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ciaran Lewis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>My Wirtz Nightmare</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gvardiol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aït-Nouri</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Craig Davis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Memyselfandi</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Diouf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yoro</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Craig Jones</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Up em stairs!</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Richarlison</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Evanilson</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gareth Davis</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Slot Machine</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gvardiol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gary Snoad-Jones</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sir Gary of Goals</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Foden</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ieuan Davies</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wataru Doing</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Frimpong</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kerkez</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ndiaye</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Reijnders</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Matt Hall</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Endo The Line</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Frimpong</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ballard</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rob Pezzack</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bob's Bangers</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Isak</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Watkins</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sam Green</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Turkish De Ligt</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Frimpong</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sam Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mainoo Knighted</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cherki</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Reijnders</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Seema Thomas</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La La Landerers</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Frimpong</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ballard</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Simon Pickthall</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Frank &amp; Earnest</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Isak</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Thomas Griffiths</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CABANGO CABANGO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gvardiol</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Calafiori</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>jamie jones</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Game of Jones</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Konsa</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dorgu</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rodwyn hughes</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Parkyking</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Frimpong</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alex Stephenson</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ajax Hamsterdam</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mbeumo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ben Davies</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Goodison Gang</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dalot</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ben Davies</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The Goodison Gang</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cunha</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ben Davies</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The Goodison Gang</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Raya</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bayindir</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chuka Iwobi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Matthijs De Lish</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Aït-Nouri</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Calafiori</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Craig Davis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Memyselfandi</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Daniel Thomas</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ctrl Alt Deligt</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Neto</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Daniel Thomas</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ctrl Alt Deligt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Kudus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fantasy Elliot</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Change Name</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Marc Guiu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fantasy Elliot</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Change Name</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>O.Dango</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gareth Davis</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Slot Machine</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Solanke</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Richarlison</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gary Snoad-Jones</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sir Gary of Goals</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Grealish</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ieuan Davies</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wataru Doing</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Estêvão</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Bowen</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Marc Guiu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Grealish</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rogers</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Enzo</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wan-Bissaka</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Spence</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Milenković</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Calafiori</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Dorgu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yoro</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Alex Moreno</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rodon</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Beto</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Ndiaye</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gvardiol</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Gudmundsson</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Alex Moreno</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kieran O'Brien</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lana Del Gavin Rae</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Neto</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kieran O'Brien</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lana Del Gavin Rae</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Diouf</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Matt Hall</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Endo The Line</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wan-Bissaka</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Richard Hamlett</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>The Hamalayas</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Hartman</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Livramento</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rob Grainger</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ragey City</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mbeumo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Grealish</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Robin Jones</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The Last Dance</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Strand Larsen</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Robin Jones</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The Last Dance</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Gakpo</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sam Green</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Turkish De Ligt</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sam Jones</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mainoo Knighted</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Elanga</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Simon Pickthall</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Frank &amp; Earnest</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wissa</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Strand Larsen</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Watkins</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hudson-Odoi</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>B.Fernandes</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Kudus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Marmoush</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Reijnders</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Virgil</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>J.Timber</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>De Cuyper</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Reinildo</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Konsa</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Livramento</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A.Becker</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>jamie jones</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Game of Jones</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rodwyn hughes</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Parkyking</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Gakpo</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -452,7 +3955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,12 +4060,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ben Davies</t>
+          <t>jamie jones</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Goodison Gang</t>
+          <t>Game of Jones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -604,12 +4107,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Craig Jones</t>
+          <t>Simon Pickthall</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Up em stairs!</t>
+          <t>Frank &amp; Earnest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -627,8 +4130,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -649,12 +4154,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Simon Pickthall</t>
+          <t>Ben Davies</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frank &amp; Earnest</t>
+          <t>The Goodison Gang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -696,12 +4201,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richard Hamlett</t>
+          <t>Isaac Parr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Hamalayas</t>
+          <t>But the Levy was dry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -719,10 +4224,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F6" t="n">
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -743,12 +4246,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rodwyn hughes</t>
+          <t>Richard Hamlett</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parkyking</t>
+          <t>The Hamalayas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -790,12 +4293,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fantasy Elliot</t>
+          <t>Dan Huskings</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Change Name</t>
+          <t>Dantastic</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -813,8 +4316,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -835,12 +4340,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaac Parr</t>
+          <t>Fantasy Elliot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>But the Levy was dry</t>
+          <t>Change Name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -858,10 +4363,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -882,12 +4385,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Matt Hall</t>
+          <t>Thomas Griffiths</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Endo The Line</t>
+          <t>CABANGO CABANGO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -929,12 +4432,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dan Huskings</t>
+          <t>Ieuan Davies</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dantastic</t>
+          <t>Wataru Doing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -976,12 +4479,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Geraint Parry</t>
+          <t>Sam Jones</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Game of Throw‑Ins</t>
+          <t>Mainoo Knighted</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1023,12 +4526,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seema Thomas</t>
+          <t>Geraint Parry</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>La La Landerers</t>
+          <t>Game of Throw‑Ins</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1070,12 +4573,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thomas Griffiths</t>
+          <t>Craig Jones</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CABANGO CABANGO</t>
+          <t>Up em stairs!</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1093,10 +4596,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1117,12 +4618,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciaran Lewis</t>
+          <t>Seema Thomas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>My Wirtz Nightmare</t>
+          <t>La La Landerers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1164,12 +4665,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sam Jones</t>
+          <t>rodwyn hughes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mainoo Knighted</t>
+          <t>Parkyking</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1211,12 +4712,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kieran O'Brien</t>
+          <t>Craig Davis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lana Del Gavin Rae</t>
+          <t>Memyselfandi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1234,10 +4735,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1258,12 +4757,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Luke Morris</t>
+          <t>Mike Sanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ekitike-taka</t>
+          <t>COYS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1286,31 +4785,27 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Katie Britton</t>
+          <t>Gareth Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Neville Wears Prada</t>
+          <t>Slot Machine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1352,12 +4847,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mike Sanders</t>
+          <t>Katie Britton</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COYS</t>
+          <t>Neville Wears Prada</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1380,27 +4875,31 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gareth Davis</t>
+          <t>Matt Hall</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Slot Machine</t>
+          <t>Endo The Line</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1442,12 +4941,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ieuan Davies</t>
+          <t>Luke Morris</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wataru Doing</t>
+          <t>Ekitike-taka</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1489,18 +4988,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jen Barton</t>
+          <t>Tom O'Connor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hardly Athletic</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1536,12 +5033,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sam Green</t>
+          <t>Chuka Iwobi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Turkish De Ligt</t>
+          <t>Matthijs De Lish</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1583,12 +5080,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Robin Jones</t>
+          <t>Gary Snoad-Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Last Dance</t>
+          <t>Sir Gary of Goals</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1630,12 +5127,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Craig Davis</t>
+          <t>Ciaran Lewis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Memyselfandi</t>
+          <t>My Wirtz Nightmare</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1677,12 +5174,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chuka Iwobi</t>
+          <t>Robin Jones</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Matthijs De Lish</t>
+          <t>The Last Dance</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1724,12 +5221,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rob Pezzack</t>
+          <t>Sam Green</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bob's Bangers</t>
+          <t>Turkish De Ligt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1771,12 +5268,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Julian Ling</t>
+          <t>Kieran O'Brien</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ninian Gooners</t>
+          <t>Lana Del Gavin Rae</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1818,12 +5315,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gary Snoad-Jones</t>
+          <t>Jen Barton</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sir Gary of Goals</t>
+          <t>Hardly Athletic</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1836,10 +5333,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E30" t="n">
+        <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1865,12 +5360,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tom O'Connor</t>
+          <t>Daniel Thomas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BrokebackMount10</t>
+          <t>Ctrl Alt Deligt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1912,12 +5407,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daniel Thomas</t>
+          <t>Julian Ling</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ctrl Alt Deligt</t>
+          <t>Ninian Gooners</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1940,17 +5435,107 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G32" t="n">
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rob Pezzack</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bob's Bangers</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rob Grainger</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ragey City</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1967,7 +5552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,12 +5623,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ben Davies</t>
+          <t>jamie jones</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Goodison Gang</t>
+          <t>Game of Jones</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2066,12 +5651,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Craig Jones</t>
+          <t>Simon Pickthall</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Up em stairs!</t>
+          <t>Frank &amp; Earnest</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2079,11 +5664,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2094,12 +5679,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Simon Pickthall</t>
+          <t>Ben Davies</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frank &amp; Earnest</t>
+          <t>The Goodison Gang</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2107,7 +5692,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Haaland</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -2122,12 +5707,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richard Hamlett</t>
+          <t>Isaac Parr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Hamalayas</t>
+          <t>But the Levy was dry</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2135,11 +5720,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Haaland</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2150,12 +5735,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rodwyn hughes</t>
+          <t>Richard Hamlett</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parkyking</t>
+          <t>The Hamalayas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2178,12 +5763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fantasy Elliot</t>
+          <t>Dan Huskings</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Change Name</t>
+          <t>Dantastic</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2191,11 +5776,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Haaland</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2206,12 +5791,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaac Parr</t>
+          <t>Fantasy Elliot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>But the Levy was dry</t>
+          <t>Change Name</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2219,11 +5804,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Haaland</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2234,12 +5819,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Matt Hall</t>
+          <t>Thomas Griffiths</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Endo The Line</t>
+          <t>CABANGO CABANGO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2247,11 +5832,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ekitiké</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2262,12 +5847,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dan Huskings</t>
+          <t>Ieuan Davies</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dantastic</t>
+          <t>Wataru Doing</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2275,11 +5860,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Gakpo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2290,12 +5875,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Geraint Parry</t>
+          <t>Sam Jones</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Game of Throw‑Ins</t>
+          <t>Mainoo Knighted</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2303,11 +5888,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Ekitiké</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2318,12 +5903,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seema Thomas</t>
+          <t>Geraint Parry</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>La La Landerers</t>
+          <t>Game of Throw‑Ins</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2346,12 +5931,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thomas Griffiths</t>
+          <t>Craig Jones</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CABANGO CABANGO</t>
+          <t>Up em stairs!</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2374,12 +5959,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciaran Lewis</t>
+          <t>Seema Thomas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>My Wirtz Nightmare</t>
+          <t>La La Landerers</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2387,11 +5972,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2402,12 +5987,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sam Jones</t>
+          <t>rodwyn hughes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mainoo Knighted</t>
+          <t>Parkyking</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2415,11 +6000,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ekitiké</t>
+          <t>Haaland</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2430,12 +6015,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kieran O'Brien</t>
+          <t>Craig Davis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lana Del Gavin Rae</t>
+          <t>Memyselfandi</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2443,11 +6028,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Haaland</t>
+          <t>Wirtz</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2458,12 +6043,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Luke Morris</t>
+          <t>Mike Sanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ekitike-taka</t>
+          <t>COYS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2471,27 +6056,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Katie Britton</t>
+          <t>Gareth Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Neville Wears Prada</t>
+          <t>Slot Machine</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2499,11 +6084,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Isak</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2514,12 +6099,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mike Sanders</t>
+          <t>Katie Britton</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COYS</t>
+          <t>Neville Wears Prada</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2527,27 +6112,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Isak</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gareth Davis</t>
+          <t>Matt Hall</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Slot Machine</t>
+          <t>Endo The Line</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2555,11 +6140,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Ekitiké</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2570,12 +6155,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ieuan Davies</t>
+          <t>Luke Morris</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wataru Doing</t>
+          <t>Ekitike-taka</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2583,11 +6168,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gakpo</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2598,12 +6183,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jen Barton</t>
+          <t>Tom O'Connor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hardly Athletic</t>
+          <t>BrokebackMount10</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2611,11 +6196,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2626,12 +6211,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sam Green</t>
+          <t>Chuka Iwobi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Turkish De Ligt</t>
+          <t>Matthijs De Lish</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2639,11 +6224,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2654,12 +6239,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Robin Jones</t>
+          <t>Gary Snoad-Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Last Dance</t>
+          <t>Sir Gary of Goals</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2667,11 +6252,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>M.Salah</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2682,12 +6267,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Craig Davis</t>
+          <t>Ciaran Lewis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Memyselfandi</t>
+          <t>My Wirtz Nightmare</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2695,11 +6280,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wirtz</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2710,12 +6295,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chuka Iwobi</t>
+          <t>Robin Jones</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Matthijs De Lish</t>
+          <t>The Last Dance</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2723,11 +6308,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2738,12 +6323,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rob Pezzack</t>
+          <t>Sam Green</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bob's Bangers</t>
+          <t>Turkish De Ligt</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2766,12 +6351,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Julian Ling</t>
+          <t>Kieran O'Brien</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ninian Gooners</t>
+          <t>Lana Del Gavin Rae</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2779,11 +6364,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Haaland</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2794,12 +6379,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gary Snoad-Jones</t>
+          <t>Jen Barton</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sir Gary of Goals</t>
+          <t>Hardly Athletic</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2807,11 +6392,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>M.Salah</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2822,12 +6407,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tom O'Connor</t>
+          <t>Daniel Thomas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BrokebackMount10</t>
+          <t>Ctrl Alt Deligt</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2835,11 +6420,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2850,12 +6435,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daniel Thomas</t>
+          <t>Julian Ling</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ctrl Alt Deligt</t>
+          <t>Ninian Gooners</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2870,6 +6455,1882 @@
         <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rob Pezzack</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bob's Bangers</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Alex Stephenson</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ajax Hamsterdam</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jamie jones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Game of Jones</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Simon Pickthall</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Frank &amp; Earnest</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ben Davies</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>The Goodison Gang</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Isaac Parr</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>But the Levy was dry</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Watkins</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Richard Hamlett</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>The Hamalayas</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dan Huskings</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dantastic</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fantasy Elliot</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Change Name</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thomas Griffiths</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CABANGO CABANGO</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ieuan Davies</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wataru Doing</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Gyökeres</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sam Jones</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mainoo Knighted</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Saka</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Geraint Parry</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Game of Throw‑Ins</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Craig Jones</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Up em stairs!</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Seema Thomas</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>La La Landerers</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>rodwyn hughes</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Parkyking</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Craig Davis</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Memyselfandi</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Watkins</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mike Sanders</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>COYS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Gareth Davis</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Slot Machine</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Katie Britton</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Neville Wears Prada</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Saliba</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Matt Hall</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Endo The Line</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Luke Morris</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ekitike-taka</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>15</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chuka Iwobi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Matthijs De Lish</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gary Snoad-Jones</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sir Gary of Goals</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Gyökeres</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciaran Lewis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>My Wirtz Nightmare</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Robin Jones</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The Last Dance</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sam Green</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Turkish De Ligt</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Watkins</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kieran O'Brien</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lana Del Gavin Rae</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Daniel Thomas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ctrl Alt Deligt</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rob Pezzack</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bob's Bangers</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rob Grainger</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ragey City</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alex Stephenson</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ajax Hamsterdam</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>jamie jones</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Game of Jones</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Simon Pickthall</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Frank &amp; Earnest</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ben Davies</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The Goodison Gang</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ndiaye</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Isaac Parr</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>But the Levy was dry</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Richard Hamlett</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>The Hamalayas</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Dan Huskings</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Dantastic</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fantasy Elliot</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Change Name</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Thomas Griffiths</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CABANGO CABANGO</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ieuan Davies</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Wataru Doing</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sam Jones</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mainoo Knighted</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Geraint Parry</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Game of Throw‑Ins</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Craig Jones</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Up em stairs!</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Seema Thomas</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>La La Landerers</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rodwyn hughes</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Parkyking</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Craig Davis</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Memyselfandi</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>B.Fernandes</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Mike Sanders</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COYS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Gareth Davis</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Slot Machine</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>9</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Katie Britton</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Neville Wears Prada</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Caicedo</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Matt Hall</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Endo The Line</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ekitiké</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Luke Morris</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ekitike-taka</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tom O'Connor</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BrokebackMount10</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>9</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chuka Iwobi</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Matthijs De Lish</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Semenyo</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gary Snoad-Jones</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sir Gary of Goals</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>B.Fernandes</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ciaran Lewis</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>My Wirtz Nightmare</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Robin Jones</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>The Last Dance</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>B.Fernandes</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sam Green</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Turkish De Ligt</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>9</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Kieran O'Brien</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lana Del Gavin Rae</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Haaland</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jen Barton</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hardly Athletic</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>João Pedro</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>9</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Daniel Thomas</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ctrl Alt Deligt</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Kudus</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Julian Ling</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Ninian Gooners</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ndiaye</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rob Pezzack</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Bob's Bangers</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>M.Salah</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rob Grainger</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ragey City</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>No</t>
         </is>
